--- a/Assets/DataTables/WeaponDB.xlsx
+++ b/Assets/DataTables/WeaponDB.xlsx
@@ -32,19 +32,19 @@
     <t>GameAssetId</t>
   </si>
   <si>
-    <t>DefaultDamagePerAttack</t>
-  </si>
-  <si>
-    <t>DefaultTimePerAttack</t>
-  </si>
-  <si>
-    <t>DefaultAttackRange</t>
+    <t>DamagePerAttack</t>
+  </si>
+  <si>
+    <t>TimePerAttack</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
   </si>
   <si>
     <t>StatValueForAdditionalWeaponEffect</t>
   </si>
   <si>
-    <t>Str/Damage:+10;Dex/AttackRate:+10;</t>
+    <t>Str/DamagePerAttack:+10;Dex/TimePerAttack:-1;</t>
   </si>
 </sst>
 </file>
